--- a/inst/extdata/SkillAssignment.xlsx
+++ b/inst/extdata/SkillAssignment.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t xml:space="preserve">LO</t>
   </si>
@@ -32,19 +32,19 @@
     <t xml:space="preserve">l1</t>
   </si>
   <si>
-    <t xml:space="preserve">c1</t>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">l2</t>
   </si>
   <si>
-    <t xml:space="preserve">c2</t>
+    <t xml:space="preserve">b</t>
   </si>
   <si>
     <t xml:space="preserve">l3</t>
   </si>
   <si>
-    <t xml:space="preserve">c3</t>
+    <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">l4</t>
@@ -53,19 +53,22 @@
     <t xml:space="preserve">l5</t>
   </si>
   <si>
-    <t xml:space="preserve">c4</t>
+    <t xml:space="preserve">d</t>
   </si>
   <si>
     <t xml:space="preserve">l6</t>
   </si>
   <si>
-    <t xml:space="preserve">c5</t>
+    <t xml:space="preserve">e</t>
   </si>
   <si>
     <t xml:space="preserve">l7</t>
   </si>
   <si>
-    <t xml:space="preserve">c6</t>
+    <t xml:space="preserve">f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
   </si>
   <si>
     <t xml:space="preserve">l8</t>
@@ -164,10 +167,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="1" sqref="A9:B9 A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -238,10 +241,26 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -260,10 +279,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -326,18 +345,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
